--- a/biology/Médecine/Examen_clinique_des_aires_ganglionnaires/Examen_clinique_des_aires_ganglionnaires.xlsx
+++ b/biology/Médecine/Examen_clinique_des_aires_ganglionnaires/Examen_clinique_des_aires_ganglionnaires.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'examen clinique des aires ganglionnaires est en médecine une partie de l'examen clinique qui permet de trouver des adénopathies, ce qui peut renseigner sur des maladies infectieuses ou des problèmes hématologiques que peut avoir le patient.
-Les aires ganglionnaires à palper et à inspecter sont les suivantes[1]:
+Les aires ganglionnaires à palper et à inspecter sont les suivantes:
 aires cervicales :
 aires sous-mentales
 aires sous-maxillaires
